--- a/Trabalho 9/vetor_w0.xlsx
+++ b/Trabalho 9/vetor_w0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Engenharia de Computação\Disco virtual\IX Período\Inteligência Artificial\2019_1\Trabalhos\Trabalho 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6DC651-C76F-4F1C-BBE3-88B626C4DFF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6B6FE2-6AFD-45FF-BC7B-088D3818EDC2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{8577B32F-25EA-402A-BE8F-C0699D441FF2}"/>
   </bookViews>
@@ -371,44 +371,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D2A0E1-0564-4DDE-919C-DEEE2E697A98}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-0.68644787837640153</v>
+        <v>1.2868788109663976</v>
       </c>
       <c r="B1">
-        <v>-1.8008700868493004</v>
+        <v>1.8627268598142788</v>
       </c>
       <c r="C1">
-        <v>-1.4637485662532173</v>
+        <v>1.8218534950195415</v>
       </c>
       <c r="D1">
-        <v>-1.4751768084969763</v>
+        <v>-4.8642896305829559</v>
       </c>
       <c r="E1">
-        <v>-0.97680915988645201</v>
+        <v>0.98234342384342854</v>
       </c>
       <c r="F1">
-        <v>-1.1936980514667981</v>
+        <v>-5.446363014985721</v>
       </c>
       <c r="G1">
-        <v>-1.4997696842347337</v>
+        <v>3.4843510502064023</v>
       </c>
       <c r="H1">
-        <v>-1.4496378224884383</v>
+        <v>-1.3857011763675899</v>
       </c>
       <c r="I1">
-        <v>-1.1257177324662815</v>
+        <v>3.5271551948617907</v>
       </c>
       <c r="J1">
-        <v>-1.2847419745222068</v>
+        <v>5.1530410122077743</v>
+      </c>
+      <c r="K1">
+        <v>-0.82341838989681881</v>
+      </c>
+      <c r="L1">
+        <v>-0.30761343189010987</v>
+      </c>
+      <c r="M1">
+        <v>-2.4200562058021693</v>
+      </c>
+      <c r="N1">
+        <v>-0.7311102773218765</v>
+      </c>
+      <c r="O1">
+        <v>-2.5445647622976608</v>
+      </c>
+      <c r="P1">
+        <v>-0.6428806835155384</v>
       </c>
     </row>
   </sheetData>
